--- a/Repositorio Agricultura/Para power bi/Chile/Agricola/1_Producto_cultivos_general/Indicaciones Power bi.xlsx
+++ b/Repositorio Agricultura/Para power bi/Chile/Agricola/1_Producto_cultivos_general/Indicaciones Power bi.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Claudia_G\Dropbox\Diseño DATA's\DATA-AGRO\Repositorio Agricultura\Para power bi\Chile\Agricola\1_Producto_cultivos_general\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8480B833-A426-422B-9E35-12E1B23D0F82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEEACBFA-D64F-442F-BF8E-D2372A9E88CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7CBF168C-1D22-4A65-9B17-977B76DC58BF}"/>
+    <workbookView xWindow="-250" yWindow="800" windowWidth="9980" windowHeight="9960" activeTab="1" xr2:uid="{7CBF168C-1D22-4A65-9B17-977B76DC58BF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Producto 1_estadísticas agr (2)" sheetId="2" r:id="rId1"/>
+    <sheet name="Producto 1.2_perennes" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="58">
   <si>
     <t>Actualizado_Anuales_Económicas_exportaciones_FOB_Kg_importaciones_CIF</t>
   </si>
@@ -42,18 +43,12 @@
     <t>Exportacion_kg_FOB_anuales_final</t>
   </si>
   <si>
-    <t>Excel</t>
-  </si>
-  <si>
     <t>Variables</t>
   </si>
   <si>
     <t>Actualizado_Empleo_frutas_hortalizas_anuales_comuna</t>
   </si>
   <si>
-    <t>Detalle (solo cereales y hortalizas), Exportaciones (Kg), Exportaciones (USD-FOB)</t>
-  </si>
-  <si>
     <t>Fruticultura_permanentes_empleo</t>
   </si>
   <si>
@@ -118,6 +113,102 @@
   </si>
   <si>
     <t>Región, Categoría, producto, Precio $/Kg</t>
+  </si>
+  <si>
+    <t>Nombre archivo Excel</t>
+  </si>
+  <si>
+    <t>Detalle, Exportaciones (Kg), Exportaciones (USD-FOB)</t>
+  </si>
+  <si>
+    <t>importaciones_cif_consulta</t>
+  </si>
+  <si>
+    <t>Detalle, importaciones (USD CIF)</t>
+  </si>
+  <si>
+    <t>Descripciones_glosario</t>
+  </si>
+  <si>
+    <t>Descripción_anuales</t>
+  </si>
+  <si>
+    <t>Categoría, descripción</t>
+  </si>
+  <si>
+    <t>Descripción_frutales</t>
+  </si>
+  <si>
+    <t>Categoría, descripción y especie</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>País, mes, Detalle (frutales), Exportaciones (Kg), Exportaciones (USD-FOB).</t>
+  </si>
+  <si>
+    <t>Mostrar exportaciones en kg y USD FOB por categoría y especie. Cruzar Kg con USD (históricas y anuales). Compara precios (USDFOB/Kg) según país de destino. Principales países de destino</t>
+  </si>
+  <si>
+    <t>Pais, mes, Detalle, importaciones (USD CIF)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostrar importaciones según país de origen. </t>
+  </si>
+  <si>
+    <t>Presentar número de trabajadores según categoría, por región y comuna (año 2019)</t>
+  </si>
+  <si>
+    <t>Presentar superficie actual frutícola por comuna, región, categoría y especies</t>
+  </si>
+  <si>
+    <t>Región, Categoría, especie y superficie</t>
+  </si>
+  <si>
+    <t>presentar la evolución de superficie frutícola por región de 1991 al 2020. Filtrar por región y gráfico de evolución por especie y categoría.</t>
+  </si>
+  <si>
+    <t>Año, riego y superficie.</t>
+  </si>
+  <si>
+    <t>Evolución de sistemas de riego. Con el año de plantación sacar superficie por tipo de riego. Gráficos de sistemas de riego</t>
+  </si>
+  <si>
+    <t>Compara precios según región. Colocar origen de mercados mayoristas</t>
+  </si>
+  <si>
+    <t>Precio_mayoristas_consumidores</t>
+  </si>
+  <si>
+    <t>Año, mes , punto de venta, producto y precio</t>
+  </si>
+  <si>
+    <t>Exportaciones_frutas__Procesamiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colocar precio diario según especie.  </t>
+  </si>
+  <si>
+    <t>Colocar el precio mensual nacional según punto de venta (comparación)</t>
+  </si>
+  <si>
+    <t>Colocar el precio diario según principales mercados hortofrutícolas</t>
+  </si>
+  <si>
+    <t>Región, Categoría, producto, Precio (volumen) $/Kg</t>
+  </si>
+  <si>
+    <t>(año, país, procesamiento, volumen (ton), USD FOB).Exportaciones 2012-2020 por país y procesamiento anuales.</t>
+  </si>
+  <si>
+    <t>Importaciones_frutas_procesamiento</t>
+  </si>
+  <si>
+    <t>(año, país, procesamiento, volumen (ton), USD FOB).</t>
+  </si>
+  <si>
+    <t>Exportaciones 2012-2020 por país y procesamiento anuales.</t>
   </si>
 </sst>
 </file>
@@ -162,7 +253,22 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="9">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -189,12 +295,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7B81C5D6-6322-4EBD-A103-52659CEF3CAB}" name="Tabla1" displayName="Tabla1" ref="B1:D12" totalsRowShown="0" dataDxfId="0">
-  <autoFilter ref="B1:D12" xr:uid="{7961E486-6F32-4583-B2DC-A719A47E352A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D897997D-CAB5-4ED9-8214-CB5C9353CF40}" name="Indicaciones_Power_bi3" displayName="Indicaciones_Power_bi3" ref="B1:D18" totalsRowShown="0" dataDxfId="4">
+  <autoFilter ref="B1:D18" xr:uid="{7961E486-6F32-4583-B2DC-A719A47E352A}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{7CAE1CD7-CF70-4A79-81C4-E3565E85989C}" name="Excel" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{68A0D03B-E4CA-4D44-944A-62903A6B3359}" name="Nombre Tabla" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{75165966-75E3-4E3E-B283-28DEA46A7E92}" name="Variables" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{0C54425D-D0F2-444E-99EF-0DD8E6BB307C}" name="Nombre archivo Excel" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{19C03185-1221-43A8-8B65-BDD97D7D50AC}" name="Nombre Tabla" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{BD7DEBAC-577A-46E5-95E3-4545B43A6DD3}" name="Variables" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7B81C5D6-6322-4EBD-A103-52659CEF3CAB}" name="Indicaciones_perennes" displayName="Indicaciones_perennes" ref="B1:E16" totalsRowShown="0" dataDxfId="8">
+  <autoFilter ref="B1:E16" xr:uid="{7961E486-6F32-4583-B2DC-A719A47E352A}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{7CAE1CD7-CF70-4A79-81C4-E3565E85989C}" name="Nombre archivo Excel" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{68A0D03B-E4CA-4D44-944A-62903A6B3359}" name="Nombre Tabla" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{75165966-75E3-4E3E-B283-28DEA46A7E92}" name="Variables" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{28F54C26-22EC-405D-B500-BB4EE7A3EC07}" name="Descripción" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -496,11 +615,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCBB1167-FBA3-421A-B91D-D08B3CAA8B62}">
-  <dimension ref="B1:D21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE947DF2-31DD-4D1A-A678-F304542AAAB3}">
+  <dimension ref="B1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -512,13 +631,13 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="2:4" ht="46" customHeight="1" x14ac:dyDescent="0.35">
@@ -529,136 +648,453 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="46" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="2:4" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="47" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="D16" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCBB1167-FBA3-421A-B91D-D08B3CAA8B62}">
+  <dimension ref="B1:E21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="35.36328125" customWidth="1"/>
+    <col min="3" max="3" width="24.54296875" customWidth="1"/>
+    <col min="4" max="4" width="31.90625" customWidth="1"/>
+    <col min="5" max="5" width="33.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>

--- a/Repositorio Agricultura/Para power bi/Chile/Agricola/1_Producto_cultivos_general/Indicaciones Power bi.xlsx
+++ b/Repositorio Agricultura/Para power bi/Chile/Agricola/1_Producto_cultivos_general/Indicaciones Power bi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Claudia_G\Dropbox\Diseño DATA's\DATA-AGRO\Repositorio Agricultura\Para power bi\Chile\Agricola\1_Producto_cultivos_general\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEEACBFA-D64F-442F-BF8E-D2372A9E88CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25925B25-E437-42FD-B645-6C837F6BD0E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-250" yWindow="800" windowWidth="9980" windowHeight="9960" activeTab="1" xr2:uid="{7CBF168C-1D22-4A65-9B17-977B76DC58BF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{7CBF168C-1D22-4A65-9B17-977B76DC58BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Producto 1_estadísticas agr (2)" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="57">
   <si>
     <t>Actualizado_Anuales_Económicas_exportaciones_FOB_Kg_importaciones_CIF</t>
   </si>
@@ -193,12 +193,6 @@
     <t>Colocar el precio mensual nacional según punto de venta (comparación)</t>
   </si>
   <si>
-    <t>Colocar el precio diario según principales mercados hortofrutícolas</t>
-  </si>
-  <si>
-    <t>Región, Categoría, producto, Precio (volumen) $/Kg</t>
-  </si>
-  <si>
     <t>(año, país, procesamiento, volumen (ton), USD FOB).Exportaciones 2012-2020 por país y procesamiento anuales.</t>
   </si>
   <si>
@@ -209,6 +203,9 @@
   </si>
   <si>
     <t>Exportaciones 2012-2020 por país y procesamiento anuales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Región, Categoría, producto, Precio (volumen) $/Kg, origen </t>
   </si>
 </sst>
 </file>
@@ -295,24 +292,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D897997D-CAB5-4ED9-8214-CB5C9353CF40}" name="Indicaciones_Power_bi3" displayName="Indicaciones_Power_bi3" ref="B1:D18" totalsRowShown="0" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D897997D-CAB5-4ED9-8214-CB5C9353CF40}" name="Indicaciones_Power_bi3" displayName="Indicaciones_Power_bi3" ref="B1:D18" totalsRowShown="0" dataDxfId="8">
   <autoFilter ref="B1:D18" xr:uid="{7961E486-6F32-4583-B2DC-A719A47E352A}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0C54425D-D0F2-444E-99EF-0DD8E6BB307C}" name="Nombre archivo Excel" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{19C03185-1221-43A8-8B65-BDD97D7D50AC}" name="Nombre Tabla" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{BD7DEBAC-577A-46E5-95E3-4545B43A6DD3}" name="Variables" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{0C54425D-D0F2-444E-99EF-0DD8E6BB307C}" name="Nombre archivo Excel" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{19C03185-1221-43A8-8B65-BDD97D7D50AC}" name="Nombre Tabla" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{BD7DEBAC-577A-46E5-95E3-4545B43A6DD3}" name="Variables" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7B81C5D6-6322-4EBD-A103-52659CEF3CAB}" name="Indicaciones_perennes" displayName="Indicaciones_perennes" ref="B1:E16" totalsRowShown="0" dataDxfId="8">
-  <autoFilter ref="B1:E16" xr:uid="{7961E486-6F32-4583-B2DC-A719A47E352A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7B81C5D6-6322-4EBD-A103-52659CEF3CAB}" name="Indicaciones_perennes" displayName="Indicaciones_perennes" ref="B1:E14" totalsRowShown="0" dataDxfId="4">
+  <autoFilter ref="B1:E14" xr:uid="{7961E486-6F32-4583-B2DC-A719A47E352A}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7CAE1CD7-CF70-4A79-81C4-E3565E85989C}" name="Nombre archivo Excel" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{68A0D03B-E4CA-4D44-944A-62903A6B3359}" name="Nombre Tabla" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{75165966-75E3-4E3E-B283-28DEA46A7E92}" name="Variables" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{7CAE1CD7-CF70-4A79-81C4-E3565E85989C}" name="Nombre archivo Excel" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{68A0D03B-E4CA-4D44-944A-62903A6B3359}" name="Nombre Tabla" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{75165966-75E3-4E3E-B283-28DEA46A7E92}" name="Variables" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{28F54C26-22EC-405D-B500-BB4EE7A3EC07}" name="Descripción" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -619,7 +616,7 @@
   <dimension ref="B1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D6"/>
+      <selection activeCell="B1" sqref="B1:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -659,7 +656,7 @@
         <v>49</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="34" customHeight="1" x14ac:dyDescent="0.35">
@@ -689,10 +686,10 @@
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="29" x14ac:dyDescent="0.35">
@@ -870,10 +867,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCBB1167-FBA3-421A-B91D-D08B3CAA8B62}">
-  <dimension ref="B1:E21"/>
+  <dimension ref="B1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -934,10 +931,10 @@
         <v>49</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="34" customHeight="1" x14ac:dyDescent="0.35">
@@ -945,13 +942,13 @@
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1032,7 +1029,7 @@
         <v>24</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>46</v>
@@ -1080,21 +1077,11 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="2:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>52</v>
-      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
@@ -1110,16 +1097,6 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Repositorio Agricultura/Para power bi/Chile/Agricola/1_Producto_cultivos_general/Indicaciones Power bi.xlsx
+++ b/Repositorio Agricultura/Para power bi/Chile/Agricola/1_Producto_cultivos_general/Indicaciones Power bi.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Claudia_G\Dropbox\Diseño DATA's\DATA-AGRO\Repositorio Agricultura\Para power bi\Chile\Agricola\1_Producto_cultivos_general\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25925B25-E437-42FD-B645-6C837F6BD0E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0752A101-4F73-47FF-AACF-67E41F159CBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{7CBF168C-1D22-4A65-9B17-977B76DC58BF}"/>
+    <workbookView minimized="1" xWindow="12990" yWindow="320" windowWidth="6660" windowHeight="8200" xr2:uid="{7CBF168C-1D22-4A65-9B17-977B76DC58BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Producto 1_estadísticas agr (2)" sheetId="2" r:id="rId1"/>
-    <sheet name="Producto 1.2_perennes" sheetId="1" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="3" r:id="rId2"/>
+    <sheet name="Producto 1.2_perennes" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="72">
   <si>
     <t>Actualizado_Anuales_Económicas_exportaciones_FOB_Kg_importaciones_CIF</t>
   </si>
@@ -206,6 +207,51 @@
   </si>
   <si>
     <t xml:space="preserve">Región, Categoría, producto, Precio (volumen) $/Kg, origen </t>
+  </si>
+  <si>
+    <t>Vínculo</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-AGRO/master/Repositorio%20Agricultura/Para%20power%20bi/Chile/Agricola/1_Producto_cultivos_general/Actualizado_Anuales_Economicas_exportaciones_FOB_Kg_importaciones_CIF.xlsx</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-AGRO/master/Repositorio%20Agricultura/Para%20power%20bi/Chile/Agricola/1_Producto_cultivos_general/Actualizado_Empleo_frutas_hortalizas_anuales_comuna.xlsx</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-AGRO/master/Repositorio%20Agricultura/Para%20power%20bi/Chile/Agricola/1_Producto_cultivos_general/Actualizado_Fruticola_Economicas_exportaciones_FOB_Kg_importaciones_CIF.xlsx</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-AGRO/master/Repositorio%20Agricultura/Para%20power%20bi/Chile/Agricola/1_Producto_cultivos_general/Actualizado_Fruticola_superficie_comunas_evolucion_regiones.xlsx</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-AGRO/master/Repositorio%20Agricultura/Para%20power%20bi/Chile/Agricola/1_Producto_cultivos_general/Actualizado_Precio_diario_frutas_hortalizas.xlsx</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-AGRO/master/Repositorio%20Agricultura/Para%20power%20bi/Chile/Agricola/1_Producto_cultivos_general/Descripciones_glosario.xlsx</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-AGRO/master/Repositorio%20Agricultura/Para%20power%20bi/Chile/Agricola/1_Producto_cultivos_general/Superficie_cultivos_anuales_region.xlsx</t>
+  </si>
+  <si>
+    <t>Vinculo</t>
+  </si>
+  <si>
+    <t>Fruticola_procesos_agroindustria_comunas</t>
+  </si>
+  <si>
+    <t>Fruticola_produccion_AGROINDUSTRIA_directorio_2020</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-AGRO/master/Repositorio%20Agricultura/Para%20power%20bi/Chile/Agricola/1.1_Producto_frutales/Fruticola_procesos_agroindustria_comunas.xlsx</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-AGRO/master/Repositorio%20Agricultura/Para%20power%20bi/Chile/Agricola/1.1_Producto_frutales/Fruticola_produccion_AGROINDUSTRIA_directorio_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Procesos agroindustria</t>
+  </si>
+  <si>
+    <t>Categoría, especie, comuna, proceso</t>
   </si>
 </sst>
 </file>
@@ -250,7 +296,13 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="11">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -292,25 +344,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D897997D-CAB5-4ED9-8214-CB5C9353CF40}" name="Indicaciones_Power_bi3" displayName="Indicaciones_Power_bi3" ref="B1:D18" totalsRowShown="0" dataDxfId="8">
-  <autoFilter ref="B1:D18" xr:uid="{7961E486-6F32-4583-B2DC-A719A47E352A}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0C54425D-D0F2-444E-99EF-0DD8E6BB307C}" name="Nombre archivo Excel" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{19C03185-1221-43A8-8B65-BDD97D7D50AC}" name="Nombre Tabla" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{BD7DEBAC-577A-46E5-95E3-4545B43A6DD3}" name="Variables" dataDxfId="5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D897997D-CAB5-4ED9-8214-CB5C9353CF40}" name="Indicaciones_Power_bi3" displayName="Indicaciones_Power_bi3" ref="B1:E18" totalsRowShown="0" dataDxfId="10">
+  <autoFilter ref="B1:E18" xr:uid="{7961E486-6F32-4583-B2DC-A719A47E352A}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{0C54425D-D0F2-444E-99EF-0DD8E6BB307C}" name="Nombre archivo Excel" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{19C03185-1221-43A8-8B65-BDD97D7D50AC}" name="Nombre Tabla" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{BD7DEBAC-577A-46E5-95E3-4545B43A6DD3}" name="Variables" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{F72A5B1D-E976-4CE0-A8C5-9A05112F040B}" name="Vínculo" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7B81C5D6-6322-4EBD-A103-52659CEF3CAB}" name="Indicaciones_perennes" displayName="Indicaciones_perennes" ref="B1:E14" totalsRowShown="0" dataDxfId="4">
-  <autoFilter ref="B1:E14" xr:uid="{7961E486-6F32-4583-B2DC-A719A47E352A}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7CAE1CD7-CF70-4A79-81C4-E3565E85989C}" name="Nombre archivo Excel" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{68A0D03B-E4CA-4D44-944A-62903A6B3359}" name="Nombre Tabla" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{75165966-75E3-4E3E-B283-28DEA46A7E92}" name="Variables" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{28F54C26-22EC-405D-B500-BB4EE7A3EC07}" name="Descripción" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7B81C5D6-6322-4EBD-A103-52659CEF3CAB}" name="Indicaciones_perennes" displayName="Indicaciones_perennes" ref="B1:F16" totalsRowShown="0" dataDxfId="6">
+  <autoFilter ref="B1:F16" xr:uid="{7961E486-6F32-4583-B2DC-A719A47E352A}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{7CAE1CD7-CF70-4A79-81C4-E3565E85989C}" name="Nombre archivo Excel" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{68A0D03B-E4CA-4D44-944A-62903A6B3359}" name="Nombre Tabla" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{75165966-75E3-4E3E-B283-28DEA46A7E92}" name="Variables" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{28F54C26-22EC-405D-B500-BB4EE7A3EC07}" name="Descripción" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{162B9DEB-F4A9-44E8-9BFE-FD8D5D8F7BDA}" name="Vinculo" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -613,20 +667,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE947DF2-31DD-4D1A-A678-F304542AAAB3}">
-  <dimension ref="B1:D25"/>
+  <dimension ref="B1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D18"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="35.36328125" customWidth="1"/>
-    <col min="3" max="3" width="24.54296875" customWidth="1"/>
-    <col min="4" max="4" width="34.453125" customWidth="1"/>
+    <col min="3" max="3" width="32.81640625" customWidth="1"/>
+    <col min="4" max="4" width="37.26953125" customWidth="1"/>
+    <col min="5" max="5" width="49.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>26</v>
       </c>
@@ -636,8 +691,11 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="2:4" ht="46" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" ht="81" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -647,8 +705,11 @@
       <c r="D2" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" ht="46" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -658,8 +719,11 @@
       <c r="D3" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="76" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
@@ -669,8 +733,11 @@
       <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E4" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
@@ -680,8 +747,11 @@
       <c r="D5" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" ht="47" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E5" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="53.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -691,8 +761,11 @@
       <c r="D6" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="E6" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -702,8 +775,11 @@
       <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E7" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
@@ -713,8 +789,11 @@
       <c r="D8" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E8" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="46" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
@@ -724,8 +803,11 @@
       <c r="D9" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="E9" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
@@ -735,8 +817,11 @@
       <c r="D10" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="E10" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="59" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
@@ -746,8 +831,11 @@
       <c r="D11" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="E11" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
@@ -755,8 +843,11 @@
         <v>16</v>
       </c>
       <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="E12" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="58" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
@@ -766,8 +857,11 @@
       <c r="D13" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="E13" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="58" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
         <v>22</v>
       </c>
@@ -777,8 +871,11 @@
       <c r="D14" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="E14" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
         <v>22</v>
       </c>
@@ -788,8 +885,11 @@
       <c r="D15" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="E15" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="58" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
@@ -799,8 +899,11 @@
       <c r="D16" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E16" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
         <v>30</v>
       </c>
@@ -810,8 +913,11 @@
       <c r="D17" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E17" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="58" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
@@ -821,38 +927,41 @@
       <c r="D18" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E18" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -866,11 +975,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DF91A61-6590-464C-A94A-033F3FFB378C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCBB1167-FBA3-421A-B91D-D08B3CAA8B62}">
-  <dimension ref="B1:E19"/>
+  <dimension ref="B1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -879,9 +1000,10 @@
     <col min="3" max="3" width="24.54296875" customWidth="1"/>
     <col min="4" max="4" width="31.90625" customWidth="1"/>
     <col min="5" max="5" width="33.6328125" customWidth="1"/>
+    <col min="6" max="6" width="35.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>26</v>
       </c>
@@ -894,8 +1016,11 @@
       <c r="E1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="2:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
@@ -908,8 +1033,11 @@
       <c r="E2" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F2" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -922,8 +1050,11 @@
       <c r="E3" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F3" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -936,8 +1067,11 @@
       <c r="E4" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F4" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
@@ -950,8 +1084,11 @@
       <c r="E5" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F5" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -964,8 +1101,11 @@
       <c r="E6" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F6" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
@@ -978,8 +1118,11 @@
       <c r="E7" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="F7" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
@@ -992,8 +1135,11 @@
       <c r="E8" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="F8" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1006,8 +1152,11 @@
       <c r="E9" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="F9" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="87" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
@@ -1020,8 +1169,11 @@
       <c r="E10" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="F10" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="87" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
@@ -1034,8 +1186,11 @@
       <c r="E11" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="F11" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="87" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1048,8 +1203,11 @@
       <c r="E12" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F12" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="87" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>30</v>
       </c>
@@ -1060,8 +1218,11 @@
         <v>32</v>
       </c>
       <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F13" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="87" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
         <v>30</v>
       </c>
@@ -1072,16 +1233,35 @@
         <v>34</v>
       </c>
       <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B16" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B16" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>

--- a/Repositorio Agricultura/Para power bi/Chile/Agricola/1_Producto_cultivos_general/Indicaciones Power bi.xlsx
+++ b/Repositorio Agricultura/Para power bi/Chile/Agricola/1_Producto_cultivos_general/Indicaciones Power bi.xlsx
@@ -5,17 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Claudia_G\Dropbox\Diseño DATA's\DATA-AGRO\Repositorio Agricultura\Para power bi\Chile\Agricola\1_Producto_cultivos_general\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-AGRO\Repositorio Agricultura\Para power bi\Chile\Agricola\1_Producto_cultivos_general\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0752A101-4F73-47FF-AACF-67E41F159CBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A5C8A5-CB75-46ED-9D9A-1D5B7DDB4EEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="12990" yWindow="320" windowWidth="6660" windowHeight="8200" xr2:uid="{7CBF168C-1D22-4A65-9B17-977B76DC58BF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{7CBF168C-1D22-4A65-9B17-977B76DC58BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Producto 1_estadísticas agr (2)" sheetId="2" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="3" r:id="rId2"/>
-    <sheet name="Producto 1.2_perennes" sheetId="1" r:id="rId3"/>
+    <sheet name="Producto 1.2_perennes" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -287,10 +286,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -298,37 +303,37 @@
   </cellStyles>
   <dxfs count="11">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -344,27 +349,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D897997D-CAB5-4ED9-8214-CB5C9353CF40}" name="Indicaciones_Power_bi3" displayName="Indicaciones_Power_bi3" ref="B1:E18" totalsRowShown="0" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D897997D-CAB5-4ED9-8214-CB5C9353CF40}" name="Indicaciones_Power_bi3" displayName="Indicaciones_Power_bi3" ref="B1:E18" totalsRowShown="0" dataDxfId="6">
   <autoFilter ref="B1:E18" xr:uid="{7961E486-6F32-4583-B2DC-A719A47E352A}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{0C54425D-D0F2-444E-99EF-0DD8E6BB307C}" name="Nombre archivo Excel" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{19C03185-1221-43A8-8B65-BDD97D7D50AC}" name="Nombre Tabla" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{BD7DEBAC-577A-46E5-95E3-4545B43A6DD3}" name="Variables" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{F72A5B1D-E976-4CE0-A8C5-9A05112F040B}" name="Vínculo" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{0C54425D-D0F2-444E-99EF-0DD8E6BB307C}" name="Nombre archivo Excel" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{19C03185-1221-43A8-8B65-BDD97D7D50AC}" name="Nombre Tabla" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{BD7DEBAC-577A-46E5-95E3-4545B43A6DD3}" name="Variables" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{F72A5B1D-E976-4CE0-A8C5-9A05112F040B}" name="Vínculo" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7B81C5D6-6322-4EBD-A103-52659CEF3CAB}" name="Indicaciones_perennes" displayName="Indicaciones_perennes" ref="B1:F16" totalsRowShown="0" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7B81C5D6-6322-4EBD-A103-52659CEF3CAB}" name="Indicaciones_perennes" displayName="Indicaciones_perennes" ref="B1:F16" totalsRowShown="0" dataDxfId="0">
   <autoFilter ref="B1:F16" xr:uid="{7961E486-6F32-4583-B2DC-A719A47E352A}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{7CAE1CD7-CF70-4A79-81C4-E3565E85989C}" name="Nombre archivo Excel" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{68A0D03B-E4CA-4D44-944A-62903A6B3359}" name="Nombre Tabla" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{75165966-75E3-4E3E-B283-28DEA46A7E92}" name="Variables" dataDxfId="3"/>
     <tableColumn id="4" xr3:uid="{28F54C26-22EC-405D-B500-BB4EE7A3EC07}" name="Descripción" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{162B9DEB-F4A9-44E8-9BFE-FD8D5D8F7BDA}" name="Vinculo" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{162B9DEB-F4A9-44E8-9BFE-FD8D5D8F7BDA}" name="Vinculo" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -673,15 +678,15 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="35.36328125" customWidth="1"/>
-    <col min="3" max="3" width="32.81640625" customWidth="1"/>
-    <col min="4" max="4" width="37.26953125" customWidth="1"/>
-    <col min="5" max="5" width="49.453125" customWidth="1"/>
+    <col min="2" max="2" width="35.33203125" customWidth="1"/>
+    <col min="3" max="3" width="32.77734375" customWidth="1"/>
+    <col min="4" max="4" width="37.21875" customWidth="1"/>
+    <col min="5" max="5" width="49.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>26</v>
       </c>
@@ -695,273 +700,273 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="2:5" ht="81" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:5" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="2:5" ht="69.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="76" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="2:5" ht="76.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="2:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="53.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="2:5" ht="53.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="2:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="2:5" ht="46.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="2:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="59" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="2:5" ht="58.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="1" t="s">
+    <row r="12" spans="2:5" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="B13" s="1" t="s">
+    <row r="13" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="B14" s="1" t="s">
+    <row r="14" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B15" s="1" t="s">
+    <row r="15" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="B16" s="1" t="s">
+    <row r="16" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B17" s="1" t="s">
+    <row r="17" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="B18" s="1" t="s">
+    <row r="18" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -975,35 +980,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DF91A61-6590-464C-A94A-033F3FFB378C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCBB1167-FBA3-421A-B91D-D08B3CAA8B62}">
   <dimension ref="B1:F19"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="35.36328125" customWidth="1"/>
-    <col min="3" max="3" width="24.54296875" customWidth="1"/>
-    <col min="4" max="4" width="31.90625" customWidth="1"/>
-    <col min="5" max="5" width="33.6328125" customWidth="1"/>
-    <col min="6" max="6" width="35.08984375" customWidth="1"/>
+    <col min="2" max="2" width="35.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.5546875" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" customWidth="1"/>
+    <col min="5" max="5" width="33.6640625" customWidth="1"/>
+    <col min="6" max="6" width="35.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>26</v>
       </c>
@@ -1020,260 +1013,260 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="2:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="2:6" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="2:6" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="2:6" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="2:6" ht="54.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="2:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="2:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="2:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="87" x14ac:dyDescent="0.35">
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="2:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="87" x14ac:dyDescent="0.35">
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="2:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="87" x14ac:dyDescent="0.35">
-      <c r="B12" s="1" t="s">
+    <row r="12" spans="2:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="87" x14ac:dyDescent="0.35">
-      <c r="B13" s="1" t="s">
+    <row r="13" spans="2:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1" t="s">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="87" x14ac:dyDescent="0.35">
-      <c r="B14" s="1" t="s">
+    <row r="14" spans="2:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1" t="s">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="1" t="s">
+    <row r="15" spans="2:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1" t="s">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B16" s="1" t="s">
+    <row r="16" spans="2:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>

--- a/Repositorio Agricultura/Para power bi/Chile/Agricola/1_Producto_cultivos_general/Indicaciones Power bi.xlsx
+++ b/Repositorio Agricultura/Para power bi/Chile/Agricola/1_Producto_cultivos_general/Indicaciones Power bi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-AGRO\Repositorio Agricultura\Para power bi\Chile\Agricola\1_Producto_cultivos_general\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Claudia_G\Dropbox\Diseño DATA's\DATA-AGRO\Repositorio Agricultura\Para power bi\Chile\Agricola\1_Producto_cultivos_general\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A5C8A5-CB75-46ED-9D9A-1D5B7DDB4EEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78265000-B50B-403F-91D2-9EF1087AF001}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{7CBF168C-1D22-4A65-9B17-977B76DC58BF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{7CBF168C-1D22-4A65-9B17-977B76DC58BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Producto 1_estadísticas agr (2)" sheetId="2" r:id="rId1"/>
@@ -349,27 +349,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D897997D-CAB5-4ED9-8214-CB5C9353CF40}" name="Indicaciones_Power_bi3" displayName="Indicaciones_Power_bi3" ref="B1:E18" totalsRowShown="0" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D897997D-CAB5-4ED9-8214-CB5C9353CF40}" name="Indicaciones_Power_bi3" displayName="Indicaciones_Power_bi3" ref="B1:E18" totalsRowShown="0" dataDxfId="10">
   <autoFilter ref="B1:E18" xr:uid="{7961E486-6F32-4583-B2DC-A719A47E352A}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{0C54425D-D0F2-444E-99EF-0DD8E6BB307C}" name="Nombre archivo Excel" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{19C03185-1221-43A8-8B65-BDD97D7D50AC}" name="Nombre Tabla" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{BD7DEBAC-577A-46E5-95E3-4545B43A6DD3}" name="Variables" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{F72A5B1D-E976-4CE0-A8C5-9A05112F040B}" name="Vínculo" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{0C54425D-D0F2-444E-99EF-0DD8E6BB307C}" name="Nombre archivo Excel" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{19C03185-1221-43A8-8B65-BDD97D7D50AC}" name="Nombre Tabla" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{BD7DEBAC-577A-46E5-95E3-4545B43A6DD3}" name="Variables" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{F72A5B1D-E976-4CE0-A8C5-9A05112F040B}" name="Vínculo" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7B81C5D6-6322-4EBD-A103-52659CEF3CAB}" name="Indicaciones_perennes" displayName="Indicaciones_perennes" ref="B1:F16" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7B81C5D6-6322-4EBD-A103-52659CEF3CAB}" name="Indicaciones_perennes" displayName="Indicaciones_perennes" ref="B1:F16" totalsRowShown="0" dataDxfId="5">
   <autoFilter ref="B1:F16" xr:uid="{7961E486-6F32-4583-B2DC-A719A47E352A}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{7CAE1CD7-CF70-4A79-81C4-E3565E85989C}" name="Nombre archivo Excel" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{68A0D03B-E4CA-4D44-944A-62903A6B3359}" name="Nombre Tabla" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{75165966-75E3-4E3E-B283-28DEA46A7E92}" name="Variables" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{28F54C26-22EC-405D-B500-BB4EE7A3EC07}" name="Descripción" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{162B9DEB-F4A9-44E8-9BFE-FD8D5D8F7BDA}" name="Vinculo" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{7CAE1CD7-CF70-4A79-81C4-E3565E85989C}" name="Nombre archivo Excel" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{68A0D03B-E4CA-4D44-944A-62903A6B3359}" name="Nombre Tabla" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{75165966-75E3-4E3E-B283-28DEA46A7E92}" name="Variables" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{28F54C26-22EC-405D-B500-BB4EE7A3EC07}" name="Descripción" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{162B9DEB-F4A9-44E8-9BFE-FD8D5D8F7BDA}" name="Vinculo" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -674,19 +674,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE947DF2-31DD-4D1A-A678-F304542AAAB3}">
   <dimension ref="B1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="C4" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="35.33203125" customWidth="1"/>
-    <col min="3" max="3" width="32.77734375" customWidth="1"/>
-    <col min="4" max="4" width="37.21875" customWidth="1"/>
-    <col min="5" max="5" width="49.44140625" customWidth="1"/>
+    <col min="2" max="2" width="35.36328125" customWidth="1"/>
+    <col min="3" max="3" width="32.81640625" customWidth="1"/>
+    <col min="4" max="4" width="37.1796875" customWidth="1"/>
+    <col min="5" max="5" width="49.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>26</v>
       </c>
@@ -700,7 +700,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="2:5" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" ht="81" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -714,7 +714,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="69.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -728,7 +728,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="76.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" ht="76" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
@@ -742,7 +742,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
@@ -756,7 +756,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="53.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" ht="53.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
@@ -770,7 +770,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
@@ -784,7 +784,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
@@ -798,7 +798,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="46.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" ht="46" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
         <v>3</v>
       </c>
@@ -812,7 +812,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
@@ -826,7 +826,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="58.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" ht="59" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
@@ -840,7 +840,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
@@ -852,7 +852,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" ht="58" x14ac:dyDescent="0.35">
       <c r="B13" s="3" t="s">
         <v>21</v>
       </c>
@@ -866,7 +866,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" ht="58" x14ac:dyDescent="0.35">
       <c r="B14" s="3" t="s">
         <v>22</v>
       </c>
@@ -880,7 +880,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" ht="58" x14ac:dyDescent="0.35">
       <c r="B15" s="3" t="s">
         <v>22</v>
       </c>
@@ -894,7 +894,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" ht="58" x14ac:dyDescent="0.35">
       <c r="B16" s="3" t="s">
         <v>22</v>
       </c>
@@ -908,7 +908,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" ht="58" x14ac:dyDescent="0.35">
       <c r="B17" s="3" t="s">
         <v>30</v>
       </c>
@@ -922,7 +922,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" ht="58" x14ac:dyDescent="0.35">
       <c r="B18" s="3" t="s">
         <v>30</v>
       </c>
@@ -936,37 +936,37 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -983,20 +983,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCBB1167-FBA3-421A-B91D-D08B3CAA8B62}">
   <dimension ref="B1:F19"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="35.33203125" customWidth="1"/>
-    <col min="3" max="3" width="24.5546875" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" customWidth="1"/>
-    <col min="5" max="5" width="33.6640625" customWidth="1"/>
-    <col min="6" max="6" width="35.109375" customWidth="1"/>
+    <col min="2" max="2" width="35.36328125" customWidth="1"/>
+    <col min="3" max="3" width="24.54296875" customWidth="1"/>
+    <col min="4" max="4" width="31.90625" customWidth="1"/>
+    <col min="5" max="5" width="33.6328125" customWidth="1"/>
+    <col min="6" max="6" width="35.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>26</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="2:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="54.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" ht="87" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" ht="87" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" ht="87" x14ac:dyDescent="0.35">
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" ht="87" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
         <v>30</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" ht="87" x14ac:dyDescent="0.35">
       <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="s">
         <v>66</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
         <v>67</v>
       </c>
@@ -1256,17 +1256,17 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>

--- a/Repositorio Agricultura/Para power bi/Chile/Agricola/1_Producto_cultivos_general/Indicaciones Power bi.xlsx
+++ b/Repositorio Agricultura/Para power bi/Chile/Agricola/1_Producto_cultivos_general/Indicaciones Power bi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Claudia_G\Dropbox\Diseño DATA's\DATA-AGRO\Repositorio Agricultura\Para power bi\Chile\Agricola\1_Producto_cultivos_general\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78265000-B50B-403F-91D2-9EF1087AF001}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D95186-11FB-4EFB-BDBE-8A6C91BB3560}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{7CBF168C-1D22-4A65-9B17-977B76DC58BF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="73">
   <si>
     <t>Actualizado_Anuales_Económicas_exportaciones_FOB_Kg_importaciones_CIF</t>
   </si>
@@ -251,6 +251,9 @@
   </si>
   <si>
     <t>Categoría, especie, comuna, proceso</t>
+  </si>
+  <si>
+    <t>(año, país, grupo de productos, volumen (ton), USD FOB).</t>
   </si>
 </sst>
 </file>
@@ -266,12 +269,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -286,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -296,6 +305,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -984,13 +996,13 @@
   <dimension ref="B1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B2" sqref="B2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="35.36328125" customWidth="1"/>
-    <col min="3" max="3" width="24.54296875" customWidth="1"/>
+    <col min="3" max="3" width="26.36328125" customWidth="1"/>
     <col min="4" max="4" width="31.90625" customWidth="1"/>
     <col min="5" max="5" width="33.6328125" customWidth="1"/>
     <col min="6" max="6" width="35.08984375" customWidth="1"/>
@@ -1014,19 +1026,19 @@
       </c>
     </row>
     <row r="2" spans="2:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1054,8 +1066,8 @@
       <c r="C4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>54</v>
+      <c r="D4" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>55</v>
@@ -1184,19 +1196,19 @@
       </c>
     </row>
     <row r="12" spans="2:6" ht="87" x14ac:dyDescent="0.35">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="4" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1273,8 +1285,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>